--- a/References/Snowballing/Backward snowballing (Outgoing references)/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
+++ b/References/Snowballing/Backward snowballing (Outgoing references)/Backward snowballing (Outgoing references), 2017 onwards/BS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references), 2017 onwards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Backward snowballing (Outgoing references)/Backward snowballing (Outgoing references), 2017 onwards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD14517-C63D-FD43-8754-25FB0C3C8273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C0BE5F-B211-5145-A525-D30AA1EA6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B2CBE2CB-988E-AD4F-A59D-E970B9A30699}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -2634,7 +2634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2644,12 +2644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2672,12 +2666,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9265,7 +9258,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9286,7 +9279,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>849</v>
       </c>
       <c r="B2" t="s">
@@ -9302,7 +9295,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>851</v>
       </c>
       <c r="B4" t="s">
@@ -9310,7 +9303,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>792</v>
       </c>
       <c r="B5" t="s">
@@ -9318,7 +9311,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>853</v>
       </c>
       <c r="B6" t="s">
@@ -9326,7 +9319,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>804</v>
       </c>
       <c r="B7" t="s">
@@ -9350,7 +9343,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>847</v>
       </c>
       <c r="B10" t="s">
@@ -9382,7 +9375,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>784</v>
       </c>
       <c r="B14" t="s">
@@ -9390,7 +9383,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>783</v>
       </c>
       <c r="B15" t="s">
@@ -9398,7 +9391,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B16" t="s">
@@ -9406,7 +9399,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>799</v>
       </c>
       <c r="B17" t="s">
@@ -9414,7 +9407,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>793</v>
       </c>
       <c r="B18" t="s">
@@ -9430,7 +9423,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>855</v>
       </c>
       <c r="B20" t="s">
@@ -9454,7 +9447,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>796</v>
       </c>
       <c r="B23" t="s">
@@ -9470,7 +9463,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>837</v>
       </c>
       <c r="B25" t="s">
@@ -9486,7 +9479,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>806</v>
       </c>
       <c r="B27" t="s">
@@ -9502,7 +9495,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>795</v>
       </c>
       <c r="B29" t="s">
@@ -9510,7 +9503,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>797</v>
       </c>
       <c r="B30" t="s">
@@ -9526,7 +9519,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>805</v>
       </c>
       <c r="B32" t="s">
@@ -9542,7 +9535,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>802</v>
       </c>
       <c r="B34" t="s">
@@ -9558,7 +9551,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>843</v>
       </c>
       <c r="B36" t="s">
@@ -9574,7 +9567,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>786</v>
       </c>
       <c r="B38" t="s">
@@ -9582,7 +9575,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>841</v>
       </c>
       <c r="B39" t="s">
@@ -9590,7 +9583,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>785</v>
       </c>
       <c r="B40" t="s">
@@ -9598,7 +9591,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>791</v>
       </c>
       <c r="B41" t="s">
@@ -9614,7 +9607,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>845</v>
       </c>
       <c r="B43" t="s">
